--- a/docs/Team6_Schedule.xlsx
+++ b/docs/Team6_Schedule.xlsx
@@ -1262,6 +1262,174 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1269,174 +1437,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2246,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2264,86 +2264,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="22" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="20" t="s">
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="21" t="s">
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="20" t="s">
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="21" t="s">
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -2353,7 +2353,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="34" t="s">
         <v>75</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -2395,7 +2395,7 @@
       <c r="V3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="40" t="s">
+      <c r="W3" s="34" t="s">
         <v>79</v>
       </c>
       <c r="X3" s="5" t="s">
@@ -2425,49 +2425,49 @@
       <c r="AF3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AG3" s="40" t="s">
+      <c r="AG3" s="34" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="66"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="60"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="71" t="s">
         <v>133</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2481,16 +2481,16 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="62" t="s">
+      <c r="I5" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="57" t="s">
         <v>88</v>
       </c>
       <c r="M5" s="8"/>
@@ -2503,7 +2503,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="61" t="s">
+      <c r="W5" s="55" t="s">
         <v>184</v>
       </c>
       <c r="X5" s="9"/>
@@ -2515,12 +2515,12 @@
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
-      <c r="AG5" s="61" t="s">
+      <c r="AG5" s="55" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="4" t="s">
         <v>91</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="54" t="s">
         <v>185</v>
       </c>
       <c r="J6" s="11"/>
@@ -2552,7 +2552,7 @@
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
-      <c r="W6" s="61" t="s">
+      <c r="W6" s="55" t="s">
         <v>185</v>
       </c>
       <c r="X6" s="10"/>
@@ -2564,12 +2564,12 @@
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
       <c r="AF6" s="11"/>
-      <c r="AG6" s="61" t="s">
+      <c r="AG6" s="55" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="4" t="s">
         <v>164</v>
       </c>
@@ -2580,7 +2580,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="54" t="s">
         <v>218</v>
       </c>
       <c r="J7" s="11"/>
@@ -2600,7 +2600,7 @@
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
-      <c r="W7" s="61" t="s">
+      <c r="W7" s="55" t="s">
         <v>186</v>
       </c>
       <c r="X7" s="11"/>
@@ -2612,12 +2612,12 @@
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
-      <c r="AG7" s="61" t="s">
+      <c r="AG7" s="55" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="4" t="s">
         <v>93</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="54" t="s">
         <v>219</v>
       </c>
       <c r="J8" s="11"/>
@@ -2649,7 +2649,7 @@
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
-      <c r="W8" s="61" t="s">
+      <c r="W8" s="55" t="s">
         <v>187</v>
       </c>
       <c r="X8" s="10"/>
@@ -2661,24 +2661,24 @@
       <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
       <c r="AF8" s="11"/>
-      <c r="AG8" s="61" t="s">
+      <c r="AG8" s="55" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="26" t="s">
         <v>165</v>
       </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="27" t="s">
         <v>67</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="54" t="s">
         <v>220</v>
       </c>
       <c r="J9" s="11"/>
@@ -2694,7 +2694,7 @@
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
-      <c r="W9" s="61" t="s">
+      <c r="W9" s="55" t="s">
         <v>188</v>
       </c>
       <c r="X9" s="10"/>
@@ -2706,13 +2706,13 @@
       <c r="AD9" s="11"/>
       <c r="AE9" s="11"/>
       <c r="AF9" s="11"/>
-      <c r="AG9" s="61" t="s">
+      <c r="AG9" s="55" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="26" t="s">
         <v>166</v>
       </c>
       <c r="C10" s="18"/>
@@ -2725,7 +2725,7 @@
       <c r="H10" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="54" t="s">
         <v>192</v>
       </c>
       <c r="J10" s="11"/>
@@ -2741,7 +2741,7 @@
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
-      <c r="W10" s="61" t="s">
+      <c r="W10" s="55" t="s">
         <v>189</v>
       </c>
       <c r="X10" s="10"/>
@@ -2753,24 +2753,24 @@
       <c r="AD10" s="11"/>
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
-      <c r="AG10" s="61" t="s">
+      <c r="AG10" s="55" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="71"/>
+      <c r="B11" s="26" t="s">
         <v>167</v>
       </c>
       <c r="C11" s="18"/>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="27" t="s">
         <v>152</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="54" t="s">
         <v>191</v>
       </c>
       <c r="J11" s="11"/>
@@ -2786,7 +2786,7 @@
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
-      <c r="W11" s="61" t="s">
+      <c r="W11" s="55" t="s">
         <v>190</v>
       </c>
       <c r="X11" s="10"/>
@@ -2798,24 +2798,24 @@
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
-      <c r="AG11" s="61" t="s">
+      <c r="AG11" s="55" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="71"/>
+      <c r="B12" s="26" t="s">
         <v>168</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="27" t="s">
         <v>72</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="54" t="s">
         <v>192</v>
       </c>
       <c r="J12" s="11"/>
@@ -2831,7 +2831,7 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
-      <c r="W12" s="61" t="s">
+      <c r="W12" s="55" t="s">
         <v>191</v>
       </c>
       <c r="X12" s="10"/>
@@ -2843,13 +2843,13 @@
       <c r="AD12" s="11"/>
       <c r="AE12" s="11"/>
       <c r="AF12" s="11"/>
-      <c r="AG12" s="61" t="s">
+      <c r="AG12" s="55" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="40" t="s">
         <v>148</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -2860,7 +2860,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="54" t="s">
         <v>221</v>
       </c>
       <c r="J13" s="11"/>
@@ -2876,7 +2876,7 @@
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
-      <c r="W13" s="61" t="s">
+      <c r="W13" s="55" t="s">
         <v>192</v>
       </c>
       <c r="X13" s="10"/>
@@ -2888,13 +2888,13 @@
       <c r="AD13" s="11"/>
       <c r="AE13" s="11"/>
       <c r="AF13" s="11"/>
-      <c r="AG13" s="61" t="s">
+      <c r="AG13" s="55" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18" t="s">
         <v>151</v>
@@ -2903,7 +2903,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="54" t="s">
         <v>222</v>
       </c>
       <c r="J14" s="11"/>
@@ -2919,7 +2919,7 @@
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
-      <c r="W14" s="61" t="s">
+      <c r="W14" s="55" t="s">
         <v>193</v>
       </c>
       <c r="X14" s="10"/>
@@ -2931,13 +2931,13 @@
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
-      <c r="AG14" s="61" t="s">
+      <c r="AG14" s="55" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19" t="s">
         <v>173</v>
@@ -2946,7 +2946,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="60" t="s">
+      <c r="I15" s="54" t="s">
         <v>223</v>
       </c>
       <c r="J15" s="11"/>
@@ -2962,7 +2962,7 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
-      <c r="W15" s="61" t="s">
+      <c r="W15" s="55" t="s">
         <v>194</v>
       </c>
       <c r="X15" s="10"/>
@@ -2974,12 +2974,12 @@
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
       <c r="AF15" s="11"/>
-      <c r="AG15" s="61" t="s">
+      <c r="AG15" s="55" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="4" t="s">
         <v>94</v>
       </c>
@@ -2991,7 +2991,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
-      <c r="I16" s="41"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -3009,7 +3009,7 @@
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="61" t="s">
+      <c r="W16" s="55" t="s">
         <v>189</v>
       </c>
       <c r="X16" s="10"/>
@@ -3021,12 +3021,12 @@
       <c r="AD16" s="11"/>
       <c r="AE16" s="11"/>
       <c r="AF16" s="11"/>
-      <c r="AG16" s="61" t="s">
+      <c r="AG16" s="55" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="4"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18" t="s">
@@ -3036,7 +3036,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
-      <c r="I17" s="41"/>
+      <c r="I17" s="35"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -3050,7 +3050,7 @@
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
-      <c r="W17" s="53"/>
+      <c r="W17" s="47"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
@@ -3060,10 +3060,10 @@
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
       <c r="AF17" s="11"/>
-      <c r="AG17" s="53"/>
+      <c r="AG17" s="47"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="4" t="s">
         <v>174</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="41"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -3093,7 +3093,7 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="53"/>
+      <c r="W18" s="47"/>
       <c r="X18" s="10"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
@@ -3103,70 +3103,70 @@
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="53"/>
+      <c r="AG18" s="47"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="36" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="O19" s="37" t="s">
+      <c r="O19" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="P19" s="37" t="s">
+      <c r="P19" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="Q19" s="37" t="s">
+      <c r="Q19" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="R19" s="38" t="s">
+      <c r="R19" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="S19" s="36" t="s">
+      <c r="S19" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="T19" s="37" t="s">
+      <c r="T19" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="U19" s="37" t="s">
+      <c r="U19" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="V19" s="37" t="s">
+      <c r="V19" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="W19" s="54"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="54"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="48"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="71"/>
+      <c r="B20" s="26" t="s">
         <v>95</v>
       </c>
       <c r="C20" s="18"/>
@@ -3177,7 +3177,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="41"/>
+      <c r="I20" s="35"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -3191,7 +3191,7 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
-      <c r="W20" s="53"/>
+      <c r="W20" s="47"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
@@ -3201,11 +3201,11 @@
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
       <c r="AF20" s="11"/>
-      <c r="AG20" s="53"/>
+      <c r="AG20" s="47"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18" t="s">
@@ -3214,7 +3214,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="41"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -3228,7 +3228,7 @@
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
-      <c r="W21" s="53"/>
+      <c r="W21" s="47"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
@@ -3238,11 +3238,11 @@
       <c r="AD21" s="11"/>
       <c r="AE21" s="11"/>
       <c r="AF21" s="11"/>
-      <c r="AG21" s="53"/>
+      <c r="AG21" s="47"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18" t="s">
@@ -3251,7 +3251,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="41"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -3265,7 +3265,7 @@
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
-      <c r="W22" s="53"/>
+      <c r="W22" s="47"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
@@ -3275,11 +3275,11 @@
       <c r="AD22" s="11"/>
       <c r="AE22" s="11"/>
       <c r="AF22" s="11"/>
-      <c r="AG22" s="53"/>
+      <c r="AG22" s="47"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18" t="s">
@@ -3288,7 +3288,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="41"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -3302,7 +3302,7 @@
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
-      <c r="W23" s="53"/>
+      <c r="W23" s="47"/>
       <c r="X23" s="10"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
@@ -3312,11 +3312,11 @@
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
       <c r="AF23" s="11"/>
-      <c r="AG23" s="53"/>
+      <c r="AG23" s="47"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="32" t="s">
+      <c r="A24" s="71"/>
+      <c r="B24" s="26" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="18"/>
@@ -3327,7 +3327,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="41"/>
+      <c r="I24" s="35"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -3341,7 +3341,7 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="53"/>
+      <c r="W24" s="47"/>
       <c r="X24" s="10"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
@@ -3351,11 +3351,11 @@
       <c r="AD24" s="11"/>
       <c r="AE24" s="11"/>
       <c r="AF24" s="11"/>
-      <c r="AG24" s="53"/>
+      <c r="AG24" s="47"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18" t="s">
@@ -3364,7 +3364,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="41"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -3378,7 +3378,7 @@
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
-      <c r="W25" s="53"/>
+      <c r="W25" s="47"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
@@ -3388,11 +3388,11 @@
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
       <c r="AF25" s="11"/>
-      <c r="AG25" s="53"/>
+      <c r="AG25" s="47"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18" t="s">
@@ -3401,7 +3401,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="41"/>
+      <c r="I26" s="35"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -3415,7 +3415,7 @@
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
-      <c r="W26" s="53"/>
+      <c r="W26" s="47"/>
       <c r="X26" s="10"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
@@ -3425,11 +3425,11 @@
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
       <c r="AF26" s="11"/>
-      <c r="AG26" s="53"/>
+      <c r="AG26" s="47"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18" t="s">
@@ -3438,7 +3438,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="41"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -3452,7 +3452,7 @@
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
-      <c r="W27" s="53"/>
+      <c r="W27" s="47"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
@@ -3462,10 +3462,10 @@
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
       <c r="AF27" s="11"/>
-      <c r="AG27" s="53"/>
+      <c r="AG27" s="47"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="4" t="s">
         <v>92</v>
       </c>
@@ -3477,7 +3477,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="41"/>
+      <c r="I28" s="35"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
@@ -3509,7 +3509,7 @@
       <c r="V28" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="W28" s="53"/>
+      <c r="W28" s="47"/>
       <c r="X28" s="10"/>
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
@@ -3519,10 +3519,10 @@
       <c r="AD28" s="11"/>
       <c r="AE28" s="11"/>
       <c r="AF28" s="11"/>
-      <c r="AG28" s="53"/>
+      <c r="AG28" s="47"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="4"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18" t="s">
@@ -3534,7 +3534,7 @@
       <c r="H29" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="I29" s="41"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
@@ -3548,7 +3548,7 @@
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
-      <c r="W29" s="53"/>
+      <c r="W29" s="47"/>
       <c r="X29" s="10"/>
       <c r="Y29" s="11"/>
       <c r="Z29" s="11"/>
@@ -3558,10 +3558,10 @@
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
       <c r="AF29" s="11"/>
-      <c r="AG29" s="53"/>
+      <c r="AG29" s="47"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
+      <c r="A30" s="71"/>
       <c r="B30" s="4"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18" t="s">
@@ -3571,7 +3571,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
-      <c r="I30" s="41"/>
+      <c r="I30" s="35"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
@@ -3585,7 +3585,7 @@
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
-      <c r="W30" s="53"/>
+      <c r="W30" s="47"/>
       <c r="X30" s="10"/>
       <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
@@ -3595,10 +3595,10 @@
       <c r="AD30" s="11"/>
       <c r="AE30" s="11"/>
       <c r="AF30" s="11"/>
-      <c r="AG30" s="53"/>
+      <c r="AG30" s="47"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="71"/>
       <c r="B31" s="4"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18" t="s">
@@ -3610,7 +3610,7 @@
       <c r="H31" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="I31" s="41"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
@@ -3624,7 +3624,7 @@
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
-      <c r="W31" s="53"/>
+      <c r="W31" s="47"/>
       <c r="X31" s="10"/>
       <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
@@ -3634,20 +3634,20 @@
       <c r="AD31" s="11"/>
       <c r="AE31" s="11"/>
       <c r="AF31" s="11"/>
-      <c r="AG31" s="53"/>
+      <c r="AG31" s="47"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="4"/>
       <c r="C32" s="18"/>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="33" t="s">
         <v>128</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="41"/>
+      <c r="I32" s="35"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
@@ -3661,7 +3661,7 @@
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
-      <c r="W32" s="53"/>
+      <c r="W32" s="47"/>
       <c r="X32" s="10"/>
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
@@ -3671,20 +3671,20 @@
       <c r="AD32" s="11"/>
       <c r="AE32" s="11"/>
       <c r="AF32" s="11"/>
-      <c r="AG32" s="53"/>
+      <c r="AG32" s="47"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="16"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="41" t="s">
         <v>180</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="42"/>
+      <c r="I33" s="36"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
@@ -3698,7 +3698,7 @@
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
       <c r="V33" s="14"/>
-      <c r="W33" s="55"/>
+      <c r="W33" s="49"/>
       <c r="X33" s="13"/>
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
@@ -3708,59 +3708,59 @@
       <c r="AD33" s="14"/>
       <c r="AE33" s="14"/>
       <c r="AF33" s="14"/>
-      <c r="AG33" s="55"/>
+      <c r="AG33" s="49"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="36" t="s">
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="T34" s="37" t="s">
+      <c r="T34" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="U34" s="37" t="s">
+      <c r="U34" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="V34" s="48" t="s">
+      <c r="V34" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="W34" s="54"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="37"/>
-      <c r="AF34" s="37"/>
-      <c r="AG34" s="54"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="48"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="4" t="s">
         <v>97</v>
       </c>
@@ -3772,7 +3772,7 @@
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
-      <c r="I35" s="41"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
@@ -3794,7 +3794,7 @@
       <c r="V35" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="W35" s="53"/>
+      <c r="W35" s="47"/>
       <c r="X35" s="10"/>
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
@@ -3804,10 +3804,10 @@
       <c r="AD35" s="11"/>
       <c r="AE35" s="11"/>
       <c r="AF35" s="11"/>
-      <c r="AG35" s="53"/>
+      <c r="AG35" s="47"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="4" t="s">
         <v>98</v>
       </c>
@@ -3819,7 +3819,7 @@
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
-      <c r="I36" s="41"/>
+      <c r="I36" s="35"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
@@ -3839,7 +3839,7 @@
       <c r="V36" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="W36" s="53"/>
+      <c r="W36" s="47"/>
       <c r="X36" s="10"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
@@ -3849,11 +3849,11 @@
       <c r="AD36" s="11"/>
       <c r="AE36" s="11"/>
       <c r="AF36" s="11"/>
-      <c r="AG36" s="53"/>
+      <c r="AG36" s="47"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
-      <c r="B37" s="32" t="s">
+      <c r="A37" s="71"/>
+      <c r="B37" s="26" t="s">
         <v>202</v>
       </c>
       <c r="C37" s="18"/>
@@ -3864,7 +3864,7 @@
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
-      <c r="I37" s="41"/>
+      <c r="I37" s="35"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
@@ -3878,7 +3878,7 @@
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
-      <c r="W37" s="53"/>
+      <c r="W37" s="47"/>
       <c r="X37" s="10"/>
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
@@ -3888,11 +3888,11 @@
       <c r="AD37" s="11"/>
       <c r="AE37" s="11"/>
       <c r="AF37" s="11"/>
-      <c r="AG37" s="53"/>
+      <c r="AG37" s="47"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
-      <c r="B38" s="32" t="s">
+      <c r="A38" s="71"/>
+      <c r="B38" s="26" t="s">
         <v>203</v>
       </c>
       <c r="C38" s="18"/>
@@ -3903,7 +3903,7 @@
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
-      <c r="I38" s="41"/>
+      <c r="I38" s="35"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
@@ -3917,7 +3917,7 @@
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
-      <c r="W38" s="53"/>
+      <c r="W38" s="47"/>
       <c r="X38" s="10"/>
       <c r="Y38" s="11"/>
       <c r="Z38" s="11"/>
@@ -3927,14 +3927,14 @@
       <c r="AD38" s="11"/>
       <c r="AE38" s="11"/>
       <c r="AF38" s="11"/>
-      <c r="AG38" s="53"/>
+      <c r="AG38" s="47"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
-      <c r="B39" s="59" t="s">
+      <c r="A39" s="72"/>
+      <c r="B39" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="41" t="s">
         <v>201</v>
       </c>
       <c r="D39" s="17"/>
@@ -3942,7 +3942,7 @@
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="42"/>
+      <c r="I39" s="36"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
@@ -3956,7 +3956,7 @@
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
       <c r="V39" s="14"/>
-      <c r="W39" s="55" t="s">
+      <c r="W39" s="49" t="s">
         <v>204</v>
       </c>
       <c r="X39" s="13"/>
@@ -3968,50 +3968,50 @@
       <c r="AD39" s="14"/>
       <c r="AE39" s="14"/>
       <c r="AF39" s="14"/>
-      <c r="AG39" s="55"/>
+      <c r="AG39" s="49"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A40" s="71" t="s">
+      <c r="A40" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="B40" s="71"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="69"/>
-      <c r="R40" s="70"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="69"/>
-      <c r="U40" s="69"/>
-      <c r="V40" s="69"/>
-      <c r="W40" s="70"/>
-      <c r="X40" s="68"/>
-      <c r="Y40" s="69"/>
-      <c r="Z40" s="69"/>
-      <c r="AA40" s="69"/>
-      <c r="AB40" s="70"/>
-      <c r="AC40" s="68"/>
-      <c r="AD40" s="69"/>
-      <c r="AE40" s="69"/>
-      <c r="AF40" s="69"/>
-      <c r="AG40" s="70"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="64"/>
+      <c r="X40" s="62"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="63"/>
+      <c r="AA40" s="63"/>
+      <c r="AB40" s="64"/>
+      <c r="AC40" s="62"/>
+      <c r="AD40" s="63"/>
+      <c r="AE40" s="63"/>
+      <c r="AF40" s="63"/>
+      <c r="AG40" s="64"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="20">
         <v>14</v>
       </c>
       <c r="C41" s="18" t="s">
@@ -4019,54 +4019,54 @@
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="56"/>
-      <c r="X41" s="52" t="s">
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="Y41" s="34" t="s">
+      <c r="Y41" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="Z41" s="34" t="s">
+      <c r="Z41" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AA41" s="34" t="s">
+      <c r="AA41" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="AB41" s="51" t="s">
+      <c r="AB41" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="AC41" s="52" t="s">
+      <c r="AC41" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="AD41" s="34" t="s">
+      <c r="AD41" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="AE41" s="34" t="s">
+      <c r="AE41" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="AF41" s="34"/>
-      <c r="AG41" s="56"/>
+      <c r="AF41" s="28"/>
+      <c r="AG41" s="50"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="26">
+      <c r="A42" s="71"/>
+      <c r="B42" s="20">
         <v>15</v>
       </c>
       <c r="C42" s="18" t="s">
@@ -4077,165 +4077,130 @@
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
-      <c r="I42" s="44"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="28"/>
+      <c r="I42" s="38"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="22"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="28"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="22"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
-      <c r="W42" s="57"/>
-      <c r="X42" s="28"/>
+      <c r="W42" s="51"/>
+      <c r="X42" s="22"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="28"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="22"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
-      <c r="AG42" s="57"/>
+      <c r="AG42" s="51"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="58"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="16"/>
-      <c r="Z43" s="16"/>
-      <c r="AA43" s="16"/>
-      <c r="AB43" s="31"/>
-      <c r="AC43" s="30"/>
-      <c r="AD43" s="16"/>
-      <c r="AE43" s="16"/>
-      <c r="AF43" s="16"/>
-      <c r="AG43" s="58"/>
+      <c r="A43" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="43">
+        <v>16</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="50"/>
+      <c r="X43" s="46"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="45"/>
+      <c r="AC43" s="46"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF43" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG43" s="50"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A44" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="B44" s="49">
-        <v>16</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="52"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="56"/>
-      <c r="X44" s="52"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="51"/>
-      <c r="AC44" s="52"/>
-      <c r="AD44" s="34"/>
-      <c r="AE44" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF44" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG44" s="56"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
-      <c r="B45" s="27">
+      <c r="A44" s="72"/>
+      <c r="B44" s="21">
         <v>17</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C44" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="58"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="16"/>
-      <c r="Z45" s="16"/>
-      <c r="AA45" s="16"/>
-      <c r="AB45" s="31"/>
-      <c r="AC45" s="30"/>
-      <c r="AD45" s="16"/>
-      <c r="AE45" s="16"/>
-      <c r="AF45" s="16"/>
-      <c r="AG45" s="58" t="s">
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="52"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="24"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="16"/>
+      <c r="AG44" s="52" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:AG1"/>
     <mergeCell ref="A19:A33"/>
     <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="A41:A42"/>
     <mergeCell ref="S2:W2"/>
     <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="AC2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/docs/Team6_Schedule.xlsx
+++ b/docs/Team6_Schedule.xlsx
@@ -9,16 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17175" windowHeight="11565" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17175" windowHeight="11565" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="REQ_Phase1" sheetId="1" r:id="rId1"/>
     <sheet name="REQ_Phase2" sheetId="6" r:id="rId2"/>
     <sheet name="REQ_Phase3" sheetId="7" r:id="rId3"/>
     <sheet name="REQ_TSystem" sheetId="8" r:id="rId4"/>
-    <sheet name="Action Items" sheetId="2" r:id="rId5"/>
-    <sheet name="Cadence" sheetId="3" r:id="rId6"/>
-    <sheet name="members" sheetId="4" r:id="rId7"/>
+    <sheet name="Schedule for items" sheetId="2" r:id="rId5"/>
+    <sheet name="members" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="377">
   <si>
     <t>REQD-01-003</t>
   </si>
@@ -66,10 +65,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>암호화</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>REQD-01-002</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -402,10 +397,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>8-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>11</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -530,10 +521,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SQUARE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1 week</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -578,10 +565,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>N/A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -590,10 +573,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -602,10 +581,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>OWASP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -614,42 +589,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>available</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>java , N/A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -678,14 +625,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEC Risk Assessment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Code Impl</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -702,30 +641,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coverity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>14</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -819,38 +734,6 @@
   </si>
   <si>
     <t>13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1561,12 +1444,104 @@
     <t>Requirement Analysis from CMU</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>CPPChecker</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Criteria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deliveries</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cppcheck_20210608_v0.0.1.csv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>static_analysis_20210608_v0.0.1_reviewed.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flawfinder_20210607_v0.0.1.txt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(github issues)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/31(open/closed)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEC Risk Assessment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>java, findbugs,N/A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>encryption</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Documentation( Integrator )</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>square</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1654,8 +1629,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1695,6 +1678,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1785,19 +1858,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1916,6 +1976,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1925,7 +2000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2046,9 +2121,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2097,10 +2169,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2112,11 +2181,14 @@
     <xf numFmtId="49" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2124,97 +2196,250 @@
     <xf numFmtId="49" fontId="6" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="11" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="49" fontId="11" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="11" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2224,6 +2449,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5661,16 +5891,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
+      <xdr:rowOff>295275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5679,7 +5909,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3365500" y="3917950"/>
+          <a:off x="3432175" y="3889375"/>
           <a:ext cx="673100" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6802,6 +7032,166 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="직선 화살표 연결선 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14903824" y="885265"/>
+          <a:ext cx="11205" cy="2947147"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>118781</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6636</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="직선 화살표 연결선 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14899341" y="4085665"/>
+          <a:ext cx="11205" cy="1692000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>129989</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="직선 화살표 연결선 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14406283" y="880783"/>
+          <a:ext cx="4482" cy="7456393"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -7067,8 +7457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7102,7 +7492,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>374</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -7110,10 +7500,10 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -7124,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -7135,7 +7525,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -7146,7 +7536,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -7178,14 +7568,14 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -7196,7 +7586,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -7209,23 +7599,23 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -7240,11 +7630,11 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -7252,14 +7642,14 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -7271,11 +7661,11 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -7283,11 +7673,11 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -7300,11 +7690,11 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -7312,26 +7702,26 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J24" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -7346,47 +7736,47 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -7394,7 +7784,7 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -7404,7 +7794,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -7417,23 +7807,23 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -7448,47 +7838,47 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -7501,7 +7891,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -7511,11 +7901,11 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -7528,7 +7918,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -7538,22 +7928,22 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E47" s="1"/>
     </row>
@@ -7566,7 +7956,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -7576,25 +7966,26 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7603,7 +7994,7 @@
   <dimension ref="F2:G25"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7612,126 +8003,126 @@
   </cols>
   <sheetData>
     <row r="2" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F2" s="79" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="79" t="s">
-        <v>231</v>
+      <c r="F2" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G10" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G16" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="7:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="G19" s="80" t="s">
-        <v>248</v>
+      <c r="G19" s="66" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G21" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G23" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G24" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G25" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -7745,7 +8136,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18:I27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7756,632 +8149,632 @@
     <col min="6" max="6" width="49.75" customWidth="1"/>
     <col min="9" max="9" width="18.625" customWidth="1"/>
     <col min="10" max="10" width="46.625" customWidth="1"/>
-    <col min="13" max="13" width="2" style="82" customWidth="1"/>
+    <col min="13" max="13" width="2" style="67" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="77" t="s">
-        <v>382</v>
-      </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="H2" s="81" t="s">
-        <v>380</v>
-      </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
+      <c r="A2" s="78" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="H2" s="85" t="s">
+        <v>351</v>
+      </c>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="H5" s="95" t="s">
-        <v>255</v>
-      </c>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="H5" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="94" t="s">
-        <v>358</v>
-      </c>
-      <c r="D6" s="93" t="s">
-        <v>357</v>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>328</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
-      <c r="I6" s="94"/>
+      <c r="I6" s="76"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="81" t="s">
-        <v>353</v>
-      </c>
-      <c r="B7" s="81"/>
+      <c r="A7" s="85" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="85"/>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="I7" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="J7" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
       <c r="C8" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="E8" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="I8" t="s">
+        <v>296</v>
+      </c>
+      <c r="J8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I9" t="s">
+        <v>301</v>
+      </c>
+      <c r="J9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" t="s">
+        <v>294</v>
+      </c>
+      <c r="I10" t="s">
+        <v>297</v>
+      </c>
+      <c r="J10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" t="s">
+        <v>295</v>
+      </c>
+      <c r="I11" t="s">
+        <v>298</v>
+      </c>
+      <c r="J11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" t="s">
+        <v>229</v>
+      </c>
+      <c r="I12" t="s">
+        <v>299</v>
+      </c>
+      <c r="J12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" t="s">
+        <v>336</v>
+      </c>
+      <c r="I13" t="s">
+        <v>300</v>
+      </c>
+      <c r="J13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="66" t="s">
         <v>325</v>
       </c>
-      <c r="J8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
-      <c r="C9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E9" t="s">
-        <v>257</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="E16" t="s">
         <v>330</v>
       </c>
-      <c r="J9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
-      <c r="C10" t="s">
-        <v>265</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="I16" s="66"/>
+    </row>
+    <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="E17" t="s">
+        <v>280</v>
+      </c>
+      <c r="I17" s="66"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+      <c r="C18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E18" t="s">
+        <v>281</v>
+      </c>
+      <c r="I18" t="s">
+        <v>302</v>
+      </c>
+      <c r="J18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" t="s">
+        <v>277</v>
+      </c>
+      <c r="E20" t="s">
+        <v>282</v>
+      </c>
+      <c r="I20" t="s">
+        <v>303</v>
+      </c>
+      <c r="J20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" t="s">
+        <v>278</v>
+      </c>
+      <c r="E21" t="s">
+        <v>283</v>
+      </c>
+      <c r="I21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" t="s">
+        <v>279</v>
+      </c>
+      <c r="E22" t="s">
+        <v>284</v>
+      </c>
+      <c r="I22" t="s">
+        <v>305</v>
+      </c>
+      <c r="J22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E24" t="s">
+        <v>291</v>
+      </c>
+      <c r="I24" t="s">
+        <v>306</v>
+      </c>
+      <c r="J24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" t="s">
+        <v>287</v>
+      </c>
+      <c r="E25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I25" t="s">
+        <v>307</v>
+      </c>
+      <c r="J25" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="85"/>
+      <c r="B26" s="85"/>
+      <c r="C26" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" t="s">
+        <v>322</v>
+      </c>
+      <c r="I26" t="s">
+        <v>308</v>
+      </c>
+      <c r="J26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="68" t="s">
+        <v>289</v>
+      </c>
+      <c r="E27" t="s">
         <v>323</v>
       </c>
-      <c r="I10" t="s">
-        <v>326</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="I27" t="s">
+        <v>309</v>
+      </c>
+      <c r="J27" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="81"/>
-      <c r="B11" s="81"/>
-      <c r="C11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E11" t="s">
-        <v>324</v>
-      </c>
-      <c r="I11" t="s">
-        <v>327</v>
-      </c>
-      <c r="J11" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81"/>
-      <c r="C12" t="s">
-        <v>298</v>
-      </c>
-      <c r="E12" t="s">
-        <v>258</v>
-      </c>
-      <c r="I12" t="s">
-        <v>328</v>
-      </c>
-      <c r="J12" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="81"/>
-      <c r="B13" s="81"/>
-      <c r="C13" t="s">
-        <v>299</v>
-      </c>
-      <c r="E13" t="s">
-        <v>365</v>
-      </c>
-      <c r="I13" t="s">
-        <v>329</v>
-      </c>
-      <c r="J13" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
-      <c r="B14" s="81"/>
-      <c r="C14" t="s">
-        <v>300</v>
-      </c>
-      <c r="D14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="81"/>
-      <c r="B15" s="81"/>
-      <c r="C15" t="s">
-        <v>301</v>
-      </c>
-      <c r="D15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
-      <c r="C16" t="s">
-        <v>302</v>
-      </c>
-      <c r="D16" s="80" t="s">
-        <v>354</v>
-      </c>
-      <c r="E16" t="s">
-        <v>359</v>
-      </c>
-      <c r="I16" s="80"/>
-    </row>
-    <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
-      <c r="C17" t="s">
-        <v>303</v>
-      </c>
-      <c r="D17" s="80" t="s">
-        <v>355</v>
-      </c>
-      <c r="E17" t="s">
-        <v>309</v>
-      </c>
-      <c r="I17" s="80"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" t="s">
-        <v>304</v>
-      </c>
-      <c r="E18" t="s">
-        <v>310</v>
-      </c>
-      <c r="I18" t="s">
-        <v>331</v>
-      </c>
-      <c r="J18" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
-      <c r="C19" t="s">
-        <v>305</v>
-      </c>
-      <c r="D19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E19" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="81"/>
-      <c r="B20" s="81"/>
-      <c r="C20" t="s">
-        <v>306</v>
-      </c>
-      <c r="E20" t="s">
-        <v>311</v>
-      </c>
-      <c r="I20" t="s">
-        <v>332</v>
-      </c>
-      <c r="J20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
-      <c r="B21" s="81"/>
-      <c r="C21" t="s">
-        <v>307</v>
-      </c>
-      <c r="E21" t="s">
-        <v>312</v>
-      </c>
-      <c r="I21" t="s">
-        <v>333</v>
-      </c>
-      <c r="J21" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
-      <c r="B22" s="81"/>
-      <c r="C22" t="s">
-        <v>308</v>
-      </c>
-      <c r="E22" t="s">
-        <v>313</v>
-      </c>
-      <c r="I22" t="s">
-        <v>334</v>
-      </c>
-      <c r="J22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="81"/>
-      <c r="B23" s="81"/>
-      <c r="C23" t="s">
+    <row r="28" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="69"/>
+      <c r="B28" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="83"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="H28" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+    </row>
+    <row r="29" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73" t="s">
+        <v>243</v>
+      </c>
+      <c r="F29" s="73"/>
+      <c r="H29" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="I29" s="73" t="s">
         <v>314</v>
       </c>
-      <c r="D23" t="s">
-        <v>266</v>
-      </c>
-      <c r="E23" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="81"/>
-      <c r="B24" s="81"/>
-      <c r="C24" t="s">
-        <v>315</v>
-      </c>
-      <c r="E24" t="s">
-        <v>320</v>
-      </c>
-      <c r="I24" t="s">
-        <v>335</v>
-      </c>
-      <c r="J24" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="81"/>
-      <c r="B25" s="81"/>
-      <c r="C25" t="s">
-        <v>316</v>
-      </c>
-      <c r="E25" t="s">
-        <v>321</v>
-      </c>
-      <c r="I25" t="s">
-        <v>336</v>
-      </c>
-      <c r="J25" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="81"/>
-      <c r="B26" s="81"/>
-      <c r="C26" t="s">
-        <v>317</v>
-      </c>
-      <c r="E26" t="s">
-        <v>351</v>
-      </c>
-      <c r="I26" t="s">
-        <v>337</v>
-      </c>
-      <c r="J26" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="81"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="83" t="s">
-        <v>318</v>
-      </c>
-      <c r="E27" t="s">
-        <v>352</v>
-      </c>
-      <c r="I27" t="s">
-        <v>338</v>
-      </c>
-      <c r="J27" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="84"/>
-      <c r="B28" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="H28" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-    </row>
-    <row r="29" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="90" t="s">
-        <v>259</v>
-      </c>
-      <c r="C29" s="91" t="s">
-        <v>275</v>
-      </c>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91" t="s">
-        <v>272</v>
-      </c>
-      <c r="F29" s="91"/>
-      <c r="H29" s="91" t="s">
-        <v>269</v>
-      </c>
-      <c r="I29" s="91" t="s">
-        <v>343</v>
-      </c>
       <c r="N29" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="69"/>
+      <c r="A30" s="81"/>
       <c r="C30" s="17" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="F30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
+      <c r="A31" s="81"/>
       <c r="C31" s="17" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="F31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="N31" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="69"/>
+      <c r="A32" s="81"/>
       <c r="C32" s="17" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="F32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="N32" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="69"/>
+      <c r="A33" s="81"/>
       <c r="C33" s="17" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="F33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="N33" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="69"/>
+      <c r="A34" s="81"/>
       <c r="C34" s="17" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="F34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="69"/>
+      <c r="A35" s="81"/>
       <c r="C35" s="17" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="F35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="69"/>
+      <c r="A36" s="81"/>
       <c r="C36" s="17" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="F36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="69"/>
+      <c r="A37" s="81"/>
       <c r="C37" s="17" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="F37" s="17"/>
       <c r="H37" s="17" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="69"/>
+      <c r="A38" s="81"/>
       <c r="C38" s="17" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="F38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="69"/>
+      <c r="A39" s="81"/>
       <c r="C39" s="17" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="F39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="N39" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="69"/>
+      <c r="A40" s="81"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="H40" s="17" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="69"/>
-      <c r="C41" s="92" t="s">
-        <v>318</v>
+      <c r="A41" s="81"/>
+      <c r="C41" s="74" t="s">
+        <v>289</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="F41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="68"/>
+      <c r="A42" s="82"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="F42" s="16"/>
       <c r="H42" s="16" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="I42" s="16"/>
     </row>
@@ -8407,8 +8800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8416,7 +8809,7 @@
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="61.375" customWidth="1"/>
-    <col min="6" max="6" width="2" style="82" customWidth="1"/>
+    <col min="6" max="6" width="2" style="67" customWidth="1"/>
     <col min="7" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8424,22 +8817,22 @@
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="95" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="A4" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="94"/>
+      <c r="B5" s="76"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -8447,18 +8840,18 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C7" s="96" t="s">
-        <v>373</v>
+        <v>296</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C8" s="96" t="s">
-        <v>257</v>
+        <v>301</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>228</v>
       </c>
       <c r="H8">
         <v>90</v>
@@ -8466,257 +8859,257 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="C9" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="C10" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="C13" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="K13" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="C14" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="C15" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="K15" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="C16" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="C17" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="C18" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="K18" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="C19" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="C20" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="C21" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C23" s="17"/>
     </row>
     <row r="25" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
+      <c r="A25" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
     </row>
     <row r="26" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="91" t="s">
-        <v>269</v>
-      </c>
-      <c r="B26" s="91" t="s">
-        <v>343</v>
-      </c>
-      <c r="C26" s="91" t="s">
-        <v>375</v>
+      <c r="A26" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" s="73" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>346</v>
       </c>
       <c r="G26" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="G29" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="G30" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="17" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="K32" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="G36" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -8724,19 +9117,19 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="16" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -8752,10 +9145,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI5" sqref="AI5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y48" sqref="Y48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8765,1603 +9158,1612 @@
     <col min="3" max="3" width="26.625" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="9" max="14" width="3.375" style="4" customWidth="1"/>
-    <col min="15" max="33" width="3.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="0.375" customWidth="1"/>
+    <col min="7" max="7" width="7.375" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="15" width="3.375" style="4" customWidth="1"/>
+    <col min="16" max="34" width="3.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="74" t="s">
+    <row r="1" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="73" t="s">
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="76" t="s">
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="76" t="s">
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+    </row>
+    <row r="3" spans="1:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
-    </row>
-    <row r="3" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="62" t="s">
+      <c r="K3" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="L3" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="M3" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="N3" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" s="63" t="s">
+      <c r="O3" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="O3" s="63" t="s">
+      <c r="Q3" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="P3" s="63" t="s">
+      <c r="R3" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="Q3" s="63" t="s">
+      <c r="S3" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="R3" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="S3" s="63" t="s">
+      <c r="T3" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="T3" s="63" t="s">
+      <c r="V3" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="U3" s="63" t="s">
+      <c r="W3" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="V3" s="63" t="s">
+      <c r="X3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="W3" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="X3" s="63" t="s">
+      <c r="Y3" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="Y3" s="63" t="s">
+      <c r="AA3" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="Z3" s="63" t="s">
+      <c r="AB3" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="AA3" s="63" t="s">
+      <c r="AC3" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="AB3" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC3" s="63" t="s">
+      <c r="AD3" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE3" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="AD3" s="63" t="s">
+      <c r="AF3" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="AE3" s="63" t="s">
+      <c r="AG3" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="AF3" s="63" t="s">
+      <c r="AH3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="AG3" s="62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="61"/>
+    </row>
+    <row r="4" spans="1:34" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="93"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="106" t="s">
+        <v>355</v>
+      </c>
+      <c r="H4" s="106" t="s">
+        <v>356</v>
+      </c>
+      <c r="I4" s="106" t="s">
+        <v>358</v>
+      </c>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="128" t="s">
+        <v>366</v>
+      </c>
+      <c r="O4" s="57"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="128" t="s">
+        <v>367</v>
+      </c>
+      <c r="R4" s="58"/>
       <c r="S4" s="59"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="61"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="128" t="s">
+        <v>370</v>
+      </c>
+      <c r="W4" s="58"/>
       <c r="X4" s="59"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="61"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="128" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB4" s="58"/>
       <c r="AC4" s="59"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="61"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
-        <v>130</v>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="128" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="59"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" s="81" t="s">
+        <v>127</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="6"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="M5" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="8"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y5" s="8"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="8"/>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
-      <c r="AG5" s="53" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A6" s="81"/>
       <c r="B6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
-      <c r="I6" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="J6" s="10"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="51" t="s">
+        <v>161</v>
+      </c>
       <c r="K6" s="10"/>
-      <c r="L6" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="124" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" s="125" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" s="9"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="9"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
-      <c r="W6" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y6" s="9"/>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="9"/>
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
-      <c r="AG6" s="53" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" s="81"/>
       <c r="B7" s="4" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="J7" s="10"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="51" t="s">
+        <v>186</v>
+      </c>
       <c r="K7" s="10"/>
-      <c r="L7" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="115" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="122" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="114" t="s">
+        <v>363</v>
+      </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="9"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
-      <c r="W7" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="X7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="9"/>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
-      <c r="AG7" s="53" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A8" s="81"/>
       <c r="B8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
-      <c r="I8" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="J8" s="10"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="51" t="s">
+        <v>187</v>
+      </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="116" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="117" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q8" s="117" t="s">
+        <v>365</v>
+      </c>
+      <c r="R8" s="10"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="9"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
-      <c r="W8" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y8" s="9"/>
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="9"/>
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
-      <c r="AG8" s="53" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A9" s="81"/>
       <c r="B9" s="25" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="52" t="s">
-        <v>217</v>
-      </c>
-      <c r="J9" s="10"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="51" t="s">
+        <v>188</v>
+      </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="9"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y9" s="9"/>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="9"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
-      <c r="AG9" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" s="81"/>
       <c r="B10" s="25" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="J10" s="10"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="51" t="s">
+        <v>168</v>
+      </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="9"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
-      <c r="W10" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y10" s="9"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="9"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
-      <c r="AG10" s="53" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="52" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11" s="81"/>
       <c r="B11" s="25" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="26" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="J11" s="10"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="51" t="s">
+        <v>167</v>
+      </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="9"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
-      <c r="W11" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y11" s="9"/>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="9"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
-      <c r="AG11" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" s="81"/>
       <c r="B12" s="25" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="J12" s="10"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="51" t="s">
+        <v>168</v>
+      </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="9"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
-      <c r="W12" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y12" s="9"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="9"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
-      <c r="AG12" s="53" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" s="81"/>
       <c r="B13" s="38" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="J13" s="10"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="51" t="s">
+        <v>189</v>
+      </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="10"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="9"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
-      <c r="W13" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y13" s="9"/>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="9"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
-      <c r="AG13" s="53" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A14" s="81"/>
       <c r="B14" s="25"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="52" t="s">
-        <v>219</v>
-      </c>
-      <c r="J14" s="10"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="51" t="s">
+        <v>190</v>
+      </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="9"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
-      <c r="W14" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y14" s="9"/>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="9"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
-      <c r="AG14" s="53" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A15" s="81"/>
       <c r="B15" s="25"/>
       <c r="C15" s="17"/>
       <c r="D15" s="18" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="J15" s="10"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="51" t="s">
+        <v>191</v>
+      </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="9"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
-      <c r="W15" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y15" s="9"/>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="9"/>
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
-      <c r="AG15" s="53" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A16" s="69"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A16" s="81"/>
       <c r="B16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>121</v>
+        <v>91</v>
+      </c>
+      <c r="C16" s="145" t="s">
+        <v>119</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="10"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="33"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="O16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="10"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="9"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
-      <c r="W16" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y16" s="9"/>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="9"/>
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
-      <c r="AG16" s="53" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="52" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A17" s="81"/>
       <c r="B17" s="4"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
-        <v>129</v>
+      <c r="D17" s="18" t="s">
+        <v>376</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="10"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="33"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="9"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="9"/>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="9"/>
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
-      <c r="AG17" s="45"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="44"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A18" s="82"/>
       <c r="B18" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="10"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="33"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="O18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
+      <c r="Q18" s="109"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="9"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="9"/>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="9"/>
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
-      <c r="AG18" s="45"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A19" s="67" t="s">
-        <v>131</v>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="44"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A19" s="88" t="s">
+        <v>128</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="30"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="O19" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="P19" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q19" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="R19" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="S19" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="T19" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="U19" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="V19" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="W19" s="46"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="136"/>
+      <c r="T19" s="110"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="29"/>
       <c r="Z19" s="30"/>
       <c r="AA19" s="30"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="29"/>
       <c r="AE19" s="30"/>
       <c r="AF19" s="30"/>
-      <c r="AG19" s="46"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="45"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A20" s="81"/>
       <c r="B20" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="10"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="33"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="9"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="9"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="9"/>
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="9"/>
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
-      <c r="AG20" s="45"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="44"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A21" s="81"/>
       <c r="B21" s="25"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="10"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="100"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="9"/>
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="9"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
-      <c r="AG21" s="45"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="44"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A22" s="81"/>
       <c r="B22" s="25"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="10"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="9"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="9"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="9"/>
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="9"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
-      <c r="AG22" s="45"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
-      <c r="B23" s="25"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="44"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A23" s="81"/>
+      <c r="B23" s="25" t="s">
+        <v>371</v>
+      </c>
       <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17" t="s">
-        <v>128</v>
-      </c>
+      <c r="D23" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="10"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="33"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="9"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="9"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="9"/>
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="9"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
-      <c r="AG23" s="45"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="25" t="s">
-        <v>94</v>
-      </c>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="44"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A24" s="81"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="10"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="33"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="9"/>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="9"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
-      <c r="AG24" s="45"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="44"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A25" s="81"/>
       <c r="B25" s="25"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="10"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="33"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="9"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="9"/>
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="9"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
-      <c r="AG25" s="45"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="44"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A26" s="81"/>
       <c r="B26" s="25"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17" t="s">
-        <v>99</v>
+      <c r="D26" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="10"/>
+      <c r="G26" s="102">
+        <v>1</v>
+      </c>
+      <c r="H26" s="107" t="s">
+        <v>362</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="J26" s="33"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="9"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="10"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="130"/>
+      <c r="T26" s="131"/>
+      <c r="U26" s="129"/>
+      <c r="V26" s="129"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="9"/>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="9"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
-      <c r="AG26" s="45"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="17"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="44"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A27" s="81"/>
+      <c r="B27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="D27" s="17"/>
-      <c r="E27" s="17" t="s">
-        <v>128</v>
-      </c>
+      <c r="E27" s="17"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="10"/>
+      <c r="G27" s="102">
+        <v>1</v>
+      </c>
+      <c r="H27" s="105" t="s">
+        <v>359</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="33"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="9"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="9"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="9"/>
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="9"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
-      <c r="AG27" s="45"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
-      <c r="B28" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="17"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="44"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A28" s="81"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="26" t="s">
+        <v>125</v>
+      </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="10"/>
+      <c r="G28" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="105" t="s">
+        <v>360</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J28" s="33"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="O28" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="P28" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S28" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="T28" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="U28" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="V28" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="W28" s="45"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="132"/>
+      <c r="T28" s="9"/>
+      <c r="V28" s="119"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="9"/>
       <c r="Z28" s="10"/>
       <c r="AA28" s="10"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="9"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
-      <c r="AG28" s="45"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A29" s="69"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="44"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A29" s="81"/>
       <c r="B29" s="4"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="10"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="9"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="9"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="9"/>
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="9"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
-      <c r="AG29" s="45"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A30" s="69"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="44"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A30" s="81"/>
       <c r="B30" s="4"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="10"/>
+      <c r="I30" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="J30" s="33"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="9"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="9"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="9"/>
       <c r="Z30" s="10"/>
       <c r="AA30" s="10"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="9"/>
       <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
-      <c r="AG30" s="45"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="44"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A31" s="81"/>
       <c r="B31" s="4"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
-        <v>124</v>
+      <c r="D31" s="32" t="s">
+        <v>123</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="10"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="33"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="9"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="9"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="9"/>
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="9"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
-      <c r="AG31" s="45"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A32" s="69"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="10"/>
-      <c r="AE32" s="10"/>
-      <c r="AF32" s="10"/>
-      <c r="AG32" s="45"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A33" s="68"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="13"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="47"/>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A34" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="T34" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="U34" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="V34" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="W34" s="46"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="30"/>
-      <c r="AE34" s="30"/>
-      <c r="AF34" s="30"/>
-      <c r="AG34" s="46"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A35" s="69"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="44"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A32" s="82"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="104" t="s">
+        <v>354</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="103">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="108" t="s">
+        <v>357</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="133"/>
+      <c r="P32" s="134"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="12"/>
+      <c r="V32" s="134"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="46"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A33" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="110"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="45"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A34" s="81"/>
+      <c r="B34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="120"/>
+      <c r="U34" s="121"/>
+      <c r="V34" s="121"/>
+      <c r="W34" s="121"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="44"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A35" s="81"/>
       <c r="B35" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="10"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="33"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="9"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="T35" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="U35" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="V35" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="W35" s="45"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="99"/>
+      <c r="V35" s="99"/>
+      <c r="W35" s="99"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="9"/>
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="9"/>
       <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
-      <c r="AG35" s="45"/>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A36" s="69"/>
-      <c r="B36" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="17" t="s">
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="44"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A36" s="81"/>
+      <c r="B36" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="10"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="33"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="9"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="U36" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="V36" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="W36" s="45"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="95"/>
+      <c r="V36" s="95"/>
+      <c r="W36" s="95"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="9"/>
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="9"/>
       <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
-      <c r="AG36" s="45"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A37" s="69"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="44"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A37" s="81"/>
       <c r="B37" s="25" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
@@ -10371,368 +10773,318 @@
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="10"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="33"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="9"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="137"/>
+      <c r="V37" s="137"/>
+      <c r="W37" s="137"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="9"/>
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="9"/>
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
-      <c r="AG37" s="45"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A38" s="69"/>
-      <c r="B38" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
-      <c r="AG38" s="45"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A39" s="68"/>
-      <c r="B39" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="14"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="47"/>
-    </row>
-    <row r="40" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="65"/>
-      <c r="R40" s="66"/>
-      <c r="S40" s="64"/>
-      <c r="T40" s="65"/>
-      <c r="U40" s="65"/>
-      <c r="V40" s="65"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="64"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="65"/>
-      <c r="AA40" s="65"/>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="64"/>
-      <c r="AD40" s="65"/>
-      <c r="AE40" s="65"/>
-      <c r="AF40" s="65"/>
-      <c r="AG40" s="66"/>
-    </row>
-    <row r="41" spans="1:33" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="69" t="s">
-        <v>133</v>
-      </c>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="44"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A38" s="82"/>
+      <c r="B38" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="146" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="46"/>
+    </row>
+    <row r="39" spans="1:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="91" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="91"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="64"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="64"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="63"/>
+      <c r="AA39" s="63"/>
+      <c r="AB39" s="63"/>
+      <c r="AC39" s="64"/>
+      <c r="AD39" s="62"/>
+      <c r="AE39" s="63"/>
+      <c r="AF39" s="63"/>
+      <c r="AG39" s="63"/>
+      <c r="AH39" s="64"/>
+    </row>
+    <row r="40" spans="1:34" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="19">
+        <v>14</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="36"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="138" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z40" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA40" s="139" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB40" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC40" s="140" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD40" s="138" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE40" s="139" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF40" s="139" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="48"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A41" s="81"/>
       <c r="B41" s="19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="36"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="4"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="36"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="21"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="21"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
-      <c r="W41" s="49"/>
-      <c r="X41" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y41" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z41" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA41" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB41" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC41" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD41" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE41" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF41" s="4"/>
-      <c r="AG41" s="49"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
-      <c r="B42" s="19">
-        <v>15</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="36"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="49"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="22"/>
-      <c r="AC42" s="21"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="49"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A43" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="B43" s="41">
+      <c r="W41" s="4"/>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="141"/>
+      <c r="AB41" s="141"/>
+      <c r="AC41" s="142"/>
+      <c r="AD41" s="143"/>
+      <c r="AE41" s="141"/>
+      <c r="AF41" s="141"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="48"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A42" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="40">
         <v>16</v>
       </c>
-      <c r="C43" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="48"/>
-      <c r="X43" s="44"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="43"/>
-      <c r="AC43" s="44"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF43" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG43" s="48"/>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A44" s="68"/>
-      <c r="B44" s="20">
+      <c r="C42" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="47"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="42"/>
+      <c r="AD42" s="43"/>
+      <c r="AE42" s="27"/>
+      <c r="AF42" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG42" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH42" s="48"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A43" s="82"/>
+      <c r="B43" s="20">
         <v>17</v>
       </c>
-      <c r="C44" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="50"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="15"/>
-      <c r="AA44" s="15"/>
-      <c r="AB44" s="24"/>
-      <c r="AC44" s="23"/>
-      <c r="AD44" s="15"/>
-      <c r="AE44" s="15"/>
-      <c r="AF44" s="15"/>
-      <c r="AG44" s="50" t="s">
-        <v>197</v>
+      <c r="C43" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="49"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="24"/>
+      <c r="AD43" s="23"/>
+      <c r="AE43" s="15"/>
+      <c r="AF43" s="15"/>
+      <c r="AG43" s="15"/>
+      <c r="AH43" s="144" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I1:AG1"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A5:A18"/>
-    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="J1:AH1"/>
+    <mergeCell ref="A19:A32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="A1:I3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="2" max="7" width="8.375" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F6"/>
   <sheetViews>
@@ -10748,75 +11100,75 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
         <v>109</v>
       </c>
-      <c r="D4" t="s">
-        <v>111</v>
-      </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
         <v>114</v>
-      </c>
-      <c r="E6" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
